--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440621.5385695738</v>
+        <v>437339.8706939357</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,28 +738,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>72.47049842454879</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1154,7 +1154,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>51.87748497259537</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>58.39471844666277</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>35.00246782997241</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>87.21341767081998</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -1850,58 +1850,58 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>147.2379120664689</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>37.46455965103562</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.07808622174225</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2211,10 +2211,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2336,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,22 +2360,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>19.15541836171557</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>161.78546006158</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,73 +2473,73 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>241.0142888776591</v>
@@ -2637,22 +2637,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>11.69581151860317</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>104.954515658907</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2801,13 +2801,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>157.9712663400187</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>6.727121898382935</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3038,16 +3038,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="G32" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>202.2946864288972</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1.944519418634081</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3156,22 +3156,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>97.76646051984098</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>190.3453970742848</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,16 +3278,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3345,19 +3345,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>136.1693813210201</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>45.7693770721695</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3484,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>89.98138655216529</v>
       </c>
       <c r="C39" t="n">
-        <v>29.05241763862477</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3743,20 +3743,20 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>132.1650052697847</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,13 +3989,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>100.8824071085284</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,16 +4028,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>157.5310968514814</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4355,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V2" t="n">
-        <v>477.1596022224361</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X2" t="n">
-        <v>233.7108255783361</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,46 +4413,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.4512093066566</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C5" t="n">
-        <v>591.4512093066566</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D5" t="n">
-        <v>591.4512093066566</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E5" t="n">
-        <v>591.4512093066566</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>518.2486856454962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4595,22 +4595,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y5" t="n">
-        <v>591.4512093066566</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4650,16 +4650,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
         <v>136.0777814360265</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4787,19 +4787,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D9" t="n">
         <v>668.2068788942177</v>
@@ -4887,19 +4887,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4920,13 +4920,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4984,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5066,25 +5066,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T11" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C14" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D14" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E14" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F14" t="n">
         <v>274.7999090013961</v>
       </c>
       <c r="G14" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
         <v>31.35113235729608</v>
@@ -5300,28 +5300,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U14" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V14" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W14" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X14" t="n">
-        <v>710.516763498309</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y14" t="n">
-        <v>467.067986854209</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>259.0600686093459</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C15" t="n">
-        <v>259.0600686093459</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D15" t="n">
-        <v>259.0600686093459</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E15" t="n">
-        <v>259.0600686093459</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F15" t="n">
-        <v>259.0600686093459</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5358,49 +5358,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>875.9627942269797</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>702.5454496776485</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>500.3588550364146</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="V15" t="n">
-        <v>259.0600686093459</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="W15" t="n">
-        <v>259.0600686093459</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="X15" t="n">
-        <v>259.0600686093459</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="Y15" t="n">
-        <v>259.0600686093459</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,16 +5598,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5628,16 +5628,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5692,25 +5692,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C20" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C20" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>360.2295980564601</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="C21" t="n">
-        <v>360.2295980564601</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D21" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>200.9921430510046</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>54.4575850778896</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>54.4575850778896</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>54.4575850778896</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5841,13 +5841,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X21" t="n">
-        <v>360.2295980564601</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y21" t="n">
-        <v>360.2295980564601</v>
+        <v>375.0280119908184</v>
       </c>
     </row>
     <row r="22">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>122.6530896684844</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C23" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>366.1018663125844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>366.1018663125844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>122.6530896684844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>122.6530896684844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X23" t="n">
-        <v>122.6530896684844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y23" t="n">
-        <v>122.6530896684844</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>346.8019152129958</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>197.8675055517446</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>38.63005054628906</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>699.4679694356633</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>699.4679694356633</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>471.2443511720524</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>471.2443511720524</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W24" t="n">
-        <v>227.7955745279523</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X24" t="n">
-        <v>227.7955745279523</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.03527576299844</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6260,16 +6260,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>689.4702815141908</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C27" t="n">
-        <v>689.4702815141908</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D27" t="n">
-        <v>540.5358718529395</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E27" t="n">
-        <v>381.298416847484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>234.763858874369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6318,37 +6318,37 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>629.8188749653011</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y27" t="n">
-        <v>689.4702815141908</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="28">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6488,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T29" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>359.7667000214245</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>185.3136707402975</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>185.3136707402975</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>26.07621573484195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>26.07621573484195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>26.07621573484195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>26.07621573484195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6543,19 +6543,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W30" t="n">
-        <v>735.8335372470253</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X30" t="n">
-        <v>527.9820370414925</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y30" t="n">
-        <v>527.9820370414925</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="31">
@@ -6637,10 +6637,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="C32" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="D32" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="E32" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="F32" t="n">
         <v>467.067986854209</v>
       </c>
-      <c r="C32" t="n">
-        <v>467.067986854209</v>
-      </c>
-      <c r="D32" t="n">
-        <v>467.067986854209</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
         <v>223.6192102101089</v>
       </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6734,16 +6734,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>467.067986854209</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>21.24530413913604</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>865.3031549855443</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>663.1165603443104</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>434.8929420806995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>434.8929420806995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="34">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>518.2486856454962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>518.2486856454962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>518.2486856454962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.5801053801904</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>371.2848501010757</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>212.0473950956202</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>65.51283712250515</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>533.6469426057913</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>533.6469426057913</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>325.7954424002585</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y36" t="n">
-        <v>325.7954424002585</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="37">
@@ -7132,7 +7132,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
         <v>19.28114311021272</v>
@@ -7151,13 +7151,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
         <v>262.7299197543128</v>
@@ -7217,7 +7217,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.38115216564972</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7287,16 +7287,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.38115216564972</v>
+        <v>284.6244618379714</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y41" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7494,46 +7494,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>353.783681549942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>353.783681549942</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W42" t="n">
-        <v>110.334904905842</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X42" t="n">
-        <v>110.334904905842</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y42" t="n">
-        <v>110.334904905842</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="43">
@@ -7591,19 +7591,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>333.7844730889342</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C44" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7676,22 +7676,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>333.7844730889342</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>333.7844730889342</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W44" t="n">
-        <v>333.7844730889342</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X44" t="n">
-        <v>333.7844730889342</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y44" t="n">
-        <v>333.7844730889342</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.38115216564972</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="C45" t="n">
-        <v>49.38115216564972</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E45" t="n">
         <v>20.03527576299844</v>
@@ -7728,22 +7728,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7758,19 +7758,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>49.38115216564972</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,19 +8298,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M12" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N15" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,10 +9246,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M18" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9258,7 +9258,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9489,16 +9489,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9966,13 +9966,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,13 +10200,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,13 +10674,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11142,13 +11142,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>344.0891364002832</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22595,25 +22595,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,28 +22626,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,22 +22671,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22793,13 +22793,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>334.4055473171626</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22835,13 +22835,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22863,25 +22863,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,22 +22908,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,7 +22960,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23027,10 +23027,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -23042,7 +23042,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23100,10 +23100,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>95.56758059204338</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23160,7 +23160,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23261,7 +23261,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23276,10 +23276,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>180.3309744674483</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23355,10 +23355,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>40.08552890911985</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23504,13 +23504,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>216.5306486674267</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23540,13 +23540,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23558,10 +23558,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>327.8432202093908</v>
       </c>
     </row>
     <row r="15">
@@ -23586,13 +23586,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>102.3410493332382</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>12.94441648182315</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23829,10 +23829,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23868,10 +23868,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>85.56267508295639</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23932,7 +23932,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23941,7 +23941,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23975,7 +23975,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24011,13 +24011,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24032,10 +24032,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,19 +24045,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>135.2439393372801</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24066,7 +24066,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>55.31854662967282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24099,10 +24099,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,10 +24111,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24224,10 +24224,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,22 +24248,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>125.9137940316683</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24333,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>9.897711042257868</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24449,10 +24449,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24500,13 +24500,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>145.2236497783945</v>
@@ -24525,22 +24525,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>125.6477056446075</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24689,13 +24689,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>255.0550143366059</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24728,13 +24728,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>8.56191730984861</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24765,7 +24765,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24777,7 +24777,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>82.66951095303214</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24807,22 +24807,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24877,13 +24877,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24926,16 +24926,16 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>204.5813593128142</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24974,7 +24974,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>155.7005610367669</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25044,22 +25044,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>73.91671058399685</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>192.3884445891958</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,16 +25166,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25208,7 +25208,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25233,19 +25233,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>36.53911766729564</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>91.57414009104113</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,7 +25296,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25372,10 +25372,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,7 +25400,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>76.55179709770205</v>
       </c>
       <c r="C39" t="n">
-        <v>143.656081349691</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25527,16 +25527,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25631,7 +25631,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25643,7 +25643,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1801156868699</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,10 +25670,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>323.8216709537613</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25725,10 +25725,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>93.77637681119015</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>314.4203304066067</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25916,16 +25916,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,16 +25941,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>9.002086798385932</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>118.392647926014</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25998,19 +25998,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490293.0738575745</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490293.0738575745</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490293.0738575745</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
   </sheetData>
@@ -26317,28 +26317,28 @@
         <v>108004.4371453661</v>
       </c>
       <c r="D2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="E2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="J2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="K2" t="n">
         <v>108004.4371453661</v>
-      </c>
-      <c r="J2" t="n">
-        <v>108004.4371453661</v>
-      </c>
-      <c r="K2" t="n">
-        <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37568.72254537859</v>
+        <v>-37960.95279092419</v>
       </c>
       <c r="C6" t="n">
-        <v>43200.7089861691</v>
+        <v>42808.47874062356</v>
       </c>
       <c r="D6" t="n">
-        <v>43200.70898616914</v>
+        <v>42808.47874062351</v>
       </c>
       <c r="E6" t="n">
-        <v>76828.30898616911</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="F6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="G6" t="n">
-        <v>76828.30898616907</v>
+        <v>76436.07874062355</v>
       </c>
       <c r="H6" t="n">
-        <v>76828.30898616907</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="I6" t="n">
-        <v>76828.30898616911</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="J6" t="n">
-        <v>13768.36638706287</v>
+        <v>13376.13614151729</v>
       </c>
       <c r="K6" t="n">
-        <v>76828.30898616907</v>
+        <v>76436.07874062355</v>
       </c>
       <c r="L6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.0787406235</v>
       </c>
       <c r="M6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.0787406235</v>
       </c>
       <c r="N6" t="n">
-        <v>76828.30898616907</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="O6" t="n">
-        <v>76828.30898616905</v>
+        <v>76436.0787406235</v>
       </c>
       <c r="P6" t="n">
-        <v>76828.30898616907</v>
+        <v>76436.0787406235</v>
       </c>
     </row>
   </sheetData>
@@ -34781,22 +34781,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M12" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35507,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35966,10 +35966,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M18" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35978,7 +35978,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9067907798016</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36686,13 +36686,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,13 +36920,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,13 +37394,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,13 +38023,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38114,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437339.8706939357</v>
+        <v>439044.6267082023</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +661,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -798,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>4.580549094716531</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -914,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
-        <v>90.38893773807641</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1096,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1212,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>51.87748497259537</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1272,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1412,28 +1414,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>52.42556848774752</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>127.9826185018314</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1506,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1628,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
-        <v>58.39471844666277</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1698,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>87.21341767081998</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>125.2226902263468</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -1749,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,19 +1973,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2126,19 +2128,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>202.2946864288972</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>37.46455965103562</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>19.15541836171557</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,22 +2447,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2494,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="W26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.0142888776591</v>
-      </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2640,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>155.6728463193873</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>104.954515658907</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2792,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,22 +2839,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>157.9712663400187</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2919,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>137.3446004078361</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2989,19 +2991,19 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3029,67 +3031,67 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3108,13 +3110,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>116.325098768111</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.944519418634081</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3171,7 +3173,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3196,58 +3198,58 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="36">
@@ -3342,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>45.7693770721695</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="37">
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3445,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="C38" t="n">
         <v>241.0142888776591</v>
@@ -3515,61 +3517,61 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
       <c r="Y38" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3579,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>89.98138655216529</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>199.4059849187966</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3670,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>110.8731063230731</v>
       </c>
       <c r="Y41" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>50.05769526855308</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>12.20112622735862</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,10 +3878,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>52.42556848774763</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>157.5310968514814</v>
+        <v>118.3634851578964</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4062,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4113,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4141,61 +4143,61 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4446,13 +4448,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4509,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X5" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4650,13 +4652,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4744,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4781,22 +4783,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>720.6083788665362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
         <v>668.2068788942177</v>
@@ -4890,13 +4892,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4920,13 +4922,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4986,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>69.84447166430675</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="C12" t="n">
-        <v>69.84447166430675</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="D12" t="n">
-        <v>69.84447166430675</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E12" t="n">
-        <v>69.84447166430675</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F12" t="n">
-        <v>69.84447166430675</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G12" t="n">
-        <v>69.84447166430675</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5145,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V12" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W12" t="n">
-        <v>485.4562706347935</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X12" t="n">
-        <v>277.6047704292607</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y12" t="n">
-        <v>69.84447166430675</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5236,13 +5238,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5302,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>272.1352367728036</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C15" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,10 +5363,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
         <v>542.809531908403</v>
@@ -5379,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>875.9627942269797</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>702.5454496776485</v>
+        <v>837.5695896254374</v>
       </c>
       <c r="T15" t="n">
-        <v>500.3588550364146</v>
+        <v>837.5695896254374</v>
       </c>
       <c r="U15" t="n">
-        <v>272.1352367728036</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="V15" t="n">
-        <v>272.1352367728036</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W15" t="n">
-        <v>272.1352367728036</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X15" t="n">
-        <v>272.1352367728036</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y15" t="n">
-        <v>272.1352367728036</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="16">
@@ -5452,19 +5454,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,16 +5600,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5621,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="19">
@@ -5692,25 +5694,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>206.8126749707503</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>168.9696854242497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>582.7883107557723</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5947,10 +5949,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>509.4769954460863</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6019,22 @@
         <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W23" t="n">
-        <v>752.9257720901863</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X23" t="n">
-        <v>752.9257720901863</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y23" t="n">
-        <v>752.9257720901863</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>346.8019152129958</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>197.8675055517446</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>38.63005054628906</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>689.4702815141908</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>689.4702815141908</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6260,16 +6262,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X26" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="W26" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X26" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V27" t="n">
-        <v>629.8188749653011</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W27" t="n">
-        <v>386.3700983212011</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X27" t="n">
-        <v>178.5185981156682</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
@@ -6449,10 +6451,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>353.3011080883284</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>353.3011080883284</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="X30" t="n">
-        <v>353.3011080883284</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y30" t="n">
-        <v>353.3011080883284</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="31">
@@ -6637,16 +6639,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>344.6327430815143</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C33" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>21.24530413913604</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6819,10 +6821,10 @@
         <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>720.6083788665362</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y33" t="n">
-        <v>512.8480801015824</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6980,7 +6982,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>694.6722890434539</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>520.2192597623269</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>371.2848501010757</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>212.0473950956202</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>65.51283712250515</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>862.8876260635219</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,7 +7262,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
         <v>725.4530095217538</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="V39" t="n">
-        <v>735.8335372470253</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="W39" t="n">
-        <v>492.3847606029253</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="X39" t="n">
-        <v>492.3847606029253</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="Y39" t="n">
-        <v>284.6244618379714</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="40">
@@ -7318,7 +7320,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7439,22 +7441,22 @@
         <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>812.6742080953335</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U41" t="n">
-        <v>812.6742080953335</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V41" t="n">
-        <v>812.6742080953335</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W41" t="n">
-        <v>569.2254314512334</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X41" t="n">
-        <v>569.2254314512334</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>32.35964568962331</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>32.35964568962331</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7494,10 +7496,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>485.4562706347935</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X42" t="n">
-        <v>277.6047704292607</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y42" t="n">
-        <v>69.84447166430675</v>
+        <v>375.0280119908184</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7593,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>72.23626279480629</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V44" t="n">
-        <v>559.1338160830064</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W44" t="n">
-        <v>315.6850394389064</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X44" t="n">
-        <v>315.6850394389064</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y44" t="n">
-        <v>315.6850394389064</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>353.7257600495809</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C45" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,19 +7733,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7761,16 +7763,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y45" t="n">
-        <v>512.8480801015824</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
         <v>19.28114311021272</v>
@@ -7843,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,7 +8309,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8538,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9009,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>303.312501347746</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,7 +9248,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9255,10 +9257,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,13 +9494,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>185.8815939223662</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,16 +9965,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10433,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10676,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11142,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,7 +22549,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>344.0891364002832</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22595,19 +22597,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22647,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22686,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1144340662031</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22802,10 +22804,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>237.3633207320585</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22863,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23021,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>380.1208739992256</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23100,10 +23102,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>95.56758059204338</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23160,7 +23162,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23224,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>288.3233546697745</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23300,28 +23302,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23340,25 +23342,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>19.46244706280733</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>40.08552890911985</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,7 +23387,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23394,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23507,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23516,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
-        <v>327.8432202093908</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23574,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23586,16 +23588,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.94441648182315</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>46.46048087749099</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23637,10 +23639,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23707,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23932,7 +23934,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24014,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>135.2439393372801</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>362.0075757138109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24224,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24257,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>276.0301037921574</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>125.9137940316683</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24333,22 +24335,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24382,13 +24384,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>44.5329991677731</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24446,13 +24448,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24500,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24528,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>44.4918823754343</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>127.8460714905183</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24725,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.56191730984861</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24807,19 +24809,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>114.3503827530836</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24877,19 +24879,19 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24917,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,16 +24970,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24996,13 +24998,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>155.7005610367669</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25059,7 +25061,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>91.57414009104113</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25287,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>105.593260554236</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25333,7 +25335,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>192.3884445891959</v>
       </c>
       <c r="C38" t="n">
         <v>124.2586028933485</v>
@@ -25403,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25454,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76.55179709770205</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,19 +25520,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>26.53539716217821</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25558,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25628,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,10 +25645,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25679,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25691,10 +25693,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>258.8579943553959</v>
       </c>
       <c r="Y41" t="n">
-        <v>323.8216709537613</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>116.4754883813142</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4439542280423</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25764,10 +25766,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,7 +25867,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>312.8473232832599</v>
+        <v>302.8566240687152</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -25919,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>9.002086798385932</v>
+        <v>48.16969849197095</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25950,7 +25952,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26001,13 +26003,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490293.0738575743</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490293.0738575743</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="C2" t="n">
         <v>108004.4371453661</v>
@@ -26326,19 +26328,19 @@
         <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="J2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37960.95279092419</v>
+        <v>-37960.9527909242</v>
       </c>
       <c r="C6" t="n">
         <v>42808.47874062356</v>
       </c>
       <c r="D6" t="n">
-        <v>42808.47874062351</v>
+        <v>42808.47874062353</v>
       </c>
       <c r="E6" t="n">
         <v>76436.07874062353</v>
       </c>
       <c r="F6" t="n">
-        <v>76436.07874062353</v>
+        <v>76436.0787406235</v>
       </c>
       <c r="G6" t="n">
-        <v>76436.07874062355</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="H6" t="n">
         <v>76436.07874062353</v>
       </c>
       <c r="I6" t="n">
+        <v>76436.07874062355</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13376.13614151727</v>
+      </c>
+      <c r="K6" t="n">
         <v>76436.07874062352</v>
       </c>
-      <c r="J6" t="n">
-        <v>13376.13614151729</v>
-      </c>
-      <c r="K6" t="n">
-        <v>76436.07874062355</v>
-      </c>
       <c r="L6" t="n">
-        <v>76436.0787406235</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="M6" t="n">
-        <v>76436.0787406235</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="N6" t="n">
         <v>76436.07874062352</v>
       </c>
       <c r="O6" t="n">
-        <v>76436.0787406235</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="P6" t="n">
-        <v>76436.0787406235</v>
+        <v>76436.07874062352</v>
       </c>
     </row>
   </sheetData>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35018,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,7 +35029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35258,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35966,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35975,10 +35977,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36212,13 +36214,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,16 +36685,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O27" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,16 +37396,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>55.51629994036225</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N39" t="n">
         <v>240.0046611659691</v>
-      </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37862,13 +37864,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38029,7 +38031,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
